--- a/Data/zcb value hedge.xlsx
+++ b/Data/zcb value hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-27436.77064663642</v>
+        <v>-31959.75165593731</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-25441.41542431555</v>
+        <v>-29665.52364807039</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-18179.9396347162</v>
+        <v>-28572.6482297255</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-11222.04874828105</v>
+        <v>-27317.22553963287</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-20959.34533469996</v>
+        <v>-26221.77276425571</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-17885.30821080794</v>
+        <v>-25802.3207422209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-20995.65819388689</v>
+        <v>-24744.46588051765</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-15783.68732781663</v>
+        <v>-23972.84704672339</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-20359.84788564708</v>
+        <v>-23251.03355774895</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-15826.10104620612</v>
+        <v>-22547.1702566122</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-16154.27560842328</v>
+        <v>-21912.9560170359</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-16125.7243957765</v>
+        <v>-21281.19097116336</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-19875.79255729621</v>
+        <v>-20351.66789681903</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-11484.8616996503</v>
+        <v>-19908.4179420875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-17099.57651503459</v>
+        <v>-19079.97347170997</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-6213.439793444783</v>
+        <v>-18483.60234707129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-19691.04212623195</v>
+        <v>-17673.51961524272</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-15994.51094480399</v>
+        <v>-17366.6686250745</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-5669.313820830866</v>
+        <v>-16646.65143138944</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-11795.25036331977</v>
+        <v>-16275.61159338266</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-7764.832775528317</v>
+        <v>-15712.70560380038</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-3987.950290376561</v>
+        <v>-15421.55641266269</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-14121.10415109491</v>
+        <v>-14622.63732658943</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>11506.05779743925</v>
+        <v>-215648.0443395784</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-10661.51483853352</v>
+        <v>-13001.84126674546</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-13374.93347643634</v>
+        <v>-12531.88249058059</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-3872.412450456528</v>
+        <v>-12089.04326492557</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-6320.533693197676</v>
+        <v>-11640.37821568933</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-6803.703584917906</v>
+        <v>-11308.05822330619</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-5563.369722861059</v>
+        <v>-10735.2579162337</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-7887.340479222782</v>
+        <v>-10663.50641338026</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-3021.282702640778</v>
+        <v>-10214.93823585158</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-6222.31947255151</v>
+        <v>-9939.224706293748</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-13151.21782195003</v>
+        <v>-9663.994817528175</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1159.333583561313</v>
+        <v>-9161.303423415402</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>26450.52703965392</v>
+        <v>-188933.4284917613</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3168.930186369606</v>
+        <v>-8009.858823411854</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-5147.118132541867</v>
+        <v>-7645.44561219277</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-7539.744563794609</v>
+        <v>-7421.224238249953</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-6646.316743721531</v>
+        <v>-7083.660874985055</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-2183.502649959767</v>
+        <v>-6696.776074861229</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-519.3071253877565</v>
+        <v>-6485.434883767059</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-873.4066044930034</v>
+        <v>-6010.05021623445</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>4734.902263511063</v>
+        <v>-5734.908413025083</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-4579.45586768774</v>
+        <v>-5531.115621081895</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-6341.73199348596</v>
+        <v>-5141.423252984696</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-8819.877879574131</v>
+        <v>-5128.692803369443</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>6885.142537812364</v>
+        <v>-4630.698021889984</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-238.4645127462142</v>
+        <v>-4511.129623526387</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4729.286162328676</v>
+        <v>-4311.492317121422</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>6997.306304749256</v>
+        <v>-4279.399108056252</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-5051.778024645148</v>
+        <v>-3986.889956616231</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2174.056748541766</v>
+        <v>-3863.812904644858</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>141.1461810767308</v>
+        <v>-3594.96398830689</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>397.2264592335102</v>
+        <v>-3762.985642824144</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7729.657495367668</v>
+        <v>-3520.378876611871</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-9503.540925762725</v>
+        <v>-3394.387577456503</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-13687.7115944836</v>
+        <v>-3340.370862811494</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>28315.41724400434</v>
+        <v>-3235.900410371446</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>259587.5860508072</v>
+        <v>-492849.3124459296</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>23434.99384626676</v>
+        <v>-1988.994930540499</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-7677.20055774128</v>
+        <v>-2097.973456743632</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-5268.232378616654</v>
+        <v>-1875.049938219655</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>538.519256074527</v>
+        <v>-1714.464541583973</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3166.073719783357</v>
+        <v>-1829.042113197067</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-2964.001040615747</v>
+        <v>-1637.974472434951</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3144.843017843552</v>
+        <v>-1517.945350397801</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>780.7241249015217</v>
+        <v>-1419.751935794167</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1955.398107671585</v>
+        <v>-1561.594991825905</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1783.059663727789</v>
+        <v>-1280.457149214292</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>313.6581775906445</v>
+        <v>-1279.353533417165</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2416.872068678747</v>
+        <v>-1238.632013334066</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-101.5129034066718</v>
+        <v>-1130.953084540191</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-2127.407850449332</v>
+        <v>-1281.354262706336</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>4613.315951180694</v>
+        <v>-907.7344143413139</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1340.859148258877</v>
+        <v>-1107.653293606955</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1397.415617801694</v>
+        <v>-811.122450244713</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-437.6915717723666</v>
+        <v>-856.0566455260359</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2840.991805347287</v>
+        <v>-963.6091693327179</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-233.7896151713138</v>
+        <v>-812.5792488745177</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>353.5329631505302</v>
+        <v>-765.9965500341738</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>884.8788595101231</v>
+        <v>-783.0234976540203</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>3730.823424717969</v>
+        <v>-855.8634325249641</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>111119.9669623483</v>
+        <v>-121320.526806947</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>3069.530079555614</v>
+        <v>-549.3541542375672</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-1102.609343470106</v>
+        <v>-417.1817594269752</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1501.451212429743</v>
+        <v>-575.1973590885749</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>860.1199706032012</v>
+        <v>-375.3797276591897</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-2847.939728032376</v>
+        <v>-447.5411845133311</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>393.0091043752572</v>
+        <v>-270.4886648736548</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1389.396205927959</v>
+        <v>-546.81223672328</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2756.817702029889</v>
+        <v>-185.4765801917417</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-4310.090971563211</v>
+        <v>-403.4748365243897</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-1527.813477998531</v>
+        <v>-280.8567660963292</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>6707.723165705677</v>
+        <v>-492.2461633355812</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>49951.12027445262</v>
+        <v>-91260.25108524175</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>3153.705928952597</v>
+        <v>-225.6912112582006</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-6356.832343564321</v>
+        <v>-176.0471901774679</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7941.508674300487</v>
+        <v>-267.3205479293453</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-4366.97704346246</v>
+        <v>-190.8825779131579</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>54.52351029432687</v>
+        <v>-32.75966355988513</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>977.3088036276362</v>
+        <v>-132.1278393587785</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>3064.327447348672</v>
+        <v>-251.8885143852456</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-1598.713760429784</v>
+        <v>13.86008629014027</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>3432.174308146549</v>
+        <v>-132.8274595068688</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-2712.72792969914</v>
+        <v>-13.95052226220301</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>3909.762345115231</v>
+        <v>-16.09427816928123</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-737.313399794908</v>
+        <v>-21.19604080254012</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>347.2220028489285</v>
+        <v>-18.90214084917181</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2954.969109937999</v>
+        <v>-32.89108978998638</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-3776.381671795216</v>
+        <v>-26.86669857389468</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-656.5848861739336</v>
+        <v>-31.11423469039552</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1639.064412360073</v>
+        <v>-8.69936837667505</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-683.1022836941922</v>
+        <v>10.07393397944994</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1661.856777248821</v>
+        <v>6.36229993288099</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>733.9682389220462</v>
+        <v>2.951789050093243</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7390.995516712701</v>
+        <v>111.7985580416204</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-4104.605738821992</v>
+        <v>-51.37659939986231</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>3370.559972621893</v>
+        <v>33.04042838539453</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>122532.4643308873</v>
+        <v>-83478.87505630111</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb value hedge.xlsx
+++ b/Data/zcb value hedge.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hedge withzcb" sheetId="1" r:id="rId1"/>
+    <sheet name="Hedge with zcb" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-31959.75165593731</v>
+        <v>-7622.530721124003</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-29665.52364807039</v>
+        <v>-7588.999195884057</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-28572.6482297255</v>
+        <v>-7568.996440573675</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-27317.22553963287</v>
+        <v>-7523.571711990146</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-26221.77276425571</v>
+        <v>-7478.239806796148</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-25802.3207422209</v>
+        <v>-7428.360458272633</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-24744.46588051765</v>
+        <v>-7423.500125777196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-23972.84704672339</v>
+        <v>-7340.911545791098</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-23251.03355774895</v>
+        <v>-7332.24510638629</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-22547.1702566122</v>
+        <v>-7289.658856265561</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-21912.9560170359</v>
+        <v>-7253.469396046112</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-21281.19097116336</v>
+        <v>-7218.615977702817</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-20351.66789681903</v>
+        <v>-7190.463648085147</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-19908.4179420875</v>
+        <v>-7154.557934401208</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-19079.97347170997</v>
+        <v>-7127.038709521805</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-18483.60234707129</v>
+        <v>-7098.261467056442</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-17673.51961524272</v>
+        <v>-7046.290547286891</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-17366.6686250745</v>
+        <v>-7021.969593445217</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-16646.65143138944</v>
+        <v>-7003.918273710457</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-16275.61159338266</v>
+        <v>-6942.461548131815</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-15712.70560380038</v>
+        <v>-6924.230559403423</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-15421.55641266269</v>
+        <v>-6911.686472914888</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-14622.63732658943</v>
+        <v>-6846.74668956753</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-215648.0443395784</v>
+        <v>-224410.2128818214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-13001.84126674546</v>
+        <v>-5838.785523698718</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-12531.88249058059</v>
+        <v>-5795.05240527872</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-12089.04326492557</v>
+        <v>-5799.992666138514</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-11640.37821568933</v>
+        <v>-5740.929478580751</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-11308.05822330619</v>
+        <v>-5728.322780816907</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-10735.2579162337</v>
+        <v>-5718.169039977595</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-10663.50641338026</v>
+        <v>-5677.65697750444</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-10214.93823585158</v>
+        <v>-5674.857497914611</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-9939.224706293748</v>
+        <v>-5630.665899694312</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-9663.994817528175</v>
+        <v>-5619.286050598058</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-9161.303423415402</v>
+        <v>-5603.948458079039</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-188933.4284917613</v>
+        <v>-223349.8347309075</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-8009.858823411854</v>
+        <v>-4740.076731667487</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-7645.44561219277</v>
+        <v>-4686.868400847256</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-7421.224238249953</v>
+        <v>-4625.399677757027</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-7083.660874985055</v>
+        <v>-4715.312629683619</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-6696.776074861229</v>
+        <v>-4616.51159668159</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-6485.434883767059</v>
+        <v>-4577.784817213481</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-6010.05021623445</v>
+        <v>-4609.968942486036</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-5734.908413025083</v>
+        <v>-4577.289136532658</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-5531.115621081895</v>
+        <v>-4564.549603900306</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-5141.423252984696</v>
+        <v>-4558.332189945582</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-5128.692803369443</v>
+        <v>-4468.552377255958</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4630.698021889984</v>
+        <v>-4485.014373305935</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4511.129623526387</v>
+        <v>-4483.128699124405</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4311.492317121422</v>
+        <v>-4442.621214883547</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4279.399108056252</v>
+        <v>-4422.154020778657</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-3986.889956616231</v>
+        <v>-4444.537852409845</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-3863.812904644858</v>
+        <v>-4361.881874895726</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-3594.96398830689</v>
+        <v>-4404.856607662539</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-3762.985642824144</v>
+        <v>-4312.895265804676</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-3520.378876611871</v>
+        <v>-4404.412646509779</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-3394.387577456503</v>
+        <v>-4391.044682684787</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-3340.370862811494</v>
+        <v>-4234.342619609717</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-3235.900410371446</v>
+        <v>-4320.675167389954</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-492849.3124459296</v>
+        <v>-781148.4349178093</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1988.994930540499</v>
+        <v>-1912.032649069351</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-2097.973456743632</v>
+        <v>-1872.05010146453</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1875.049938219655</v>
+        <v>-1867.82417557806</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1714.464541583973</v>
+        <v>-1880.716473813329</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1829.042113197067</v>
+        <v>-1830.784867260733</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1637.974472434951</v>
+        <v>-1816.988224628488</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1517.945350397801</v>
+        <v>-1799.286243216415</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1419.751935794167</v>
+        <v>-1778.053481398876</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1561.594991825905</v>
+        <v>-1723.55861557042</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1280.457149214292</v>
+        <v>-1742.206198275024</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1279.353533417165</v>
+        <v>-1763.229912387053</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1238.632013334066</v>
+        <v>-1688.045871803162</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1130.953084540191</v>
+        <v>-1655.674854980806</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1281.354262706336</v>
+        <v>-1667.148915059801</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-907.7344143413139</v>
+        <v>-1671.100527971322</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1107.653293606955</v>
+        <v>-1606.360664241535</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-811.122450244713</v>
+        <v>-1616.874851158538</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-856.0566455260359</v>
+        <v>-1551.220628098268</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-963.6091693327179</v>
+        <v>-1598.067929065702</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-812.5792488745177</v>
+        <v>-1636.260816116902</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-765.9965500341738</v>
+        <v>-1500.361408497392</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-783.0234976540203</v>
+        <v>-1510.884054696887</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-855.8634325249641</v>
+        <v>-1521.068365453403</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-121320.526806947</v>
+        <v>-235226.1630914967</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-549.3541542375672</v>
+        <v>-928.2901559863319</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-417.1817594269752</v>
+        <v>-916.1139526378678</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-575.1973590885749</v>
+        <v>-886.1198187794911</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-375.3797276591897</v>
+        <v>-860.1141354360751</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-447.5411845133311</v>
+        <v>-862.7620707645073</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-270.4886648736548</v>
+        <v>-824.0696030194836</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-546.81223672328</v>
+        <v>-854.7009279414956</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-185.4765801917417</v>
+        <v>-814.8611413879894</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-403.4748365243897</v>
+        <v>-760.6699292261826</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-280.8567660963292</v>
+        <v>-793.4742509572268</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-492.2461633355812</v>
+        <v>-714.2608766047347</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-91260.25108524175</v>
+        <v>-144732.4342749405</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-225.6912112582006</v>
+        <v>-541.1205176627484</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-176.0471901774679</v>
+        <v>-518.8998306660274</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-267.3205479293453</v>
+        <v>-507.7472772558583</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-190.8825779131579</v>
+        <v>-486.0650085491476</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-32.75966355988513</v>
+        <v>-453.7777834403755</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-132.1278393587785</v>
+        <v>-438.097310776756</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-251.8885143852456</v>
+        <v>-460.38862895996</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>13.86008629014027</v>
+        <v>-421.7820084593986</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-132.8274595068688</v>
+        <v>-357.876823507869</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-13.95052226220301</v>
+        <v>-386.7456640336484</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-16.09427816928123</v>
+        <v>-325.7182575731566</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-21.19604080254012</v>
+        <v>-309.5643551372884</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-18.90214084917181</v>
+        <v>-273.2132875256008</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-32.89108978998638</v>
+        <v>-251.4466387277915</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-26.86669857389468</v>
+        <v>-224.0810672465689</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-31.11423469039552</v>
+        <v>-186.3060520516293</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-8.69936837667505</v>
+        <v>-148.8326831165467</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>10.07393397944994</v>
+        <v>-111.3136866731759</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>6.36229993288099</v>
+        <v>-75.53390113648707</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2.951789050093243</v>
+        <v>-17.07511273263166</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>111.7985580416204</v>
+        <v>-29.36528224022605</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-51.37659939986231</v>
+        <v>72.55451462205606</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>33.04042838539453</v>
+        <v>49.48193196166244</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-83478.87505630111</v>
+        <v>-67029.36546401915</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb value hedge.xlsx
+++ b/Data/zcb value hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-7622.530721124003</v>
+        <v>189972.6342060384</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-7588.999195884057</v>
+        <v>482388.7191872528</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-7568.996440573675</v>
+        <v>-387898.3602988338</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-7523.571711990146</v>
+        <v>-521686.9224756696</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-7478.239806796148</v>
+        <v>-24114.58100197818</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-7428.360458272633</v>
+        <v>-108671.7521613445</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7423.500125777196</v>
+        <v>236129.9554903601</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-7340.911545791098</v>
+        <v>84217.74204762869</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7332.24510638629</v>
+        <v>-411730.673779253</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-7289.658856265561</v>
+        <v>-193965.2827945087</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-7253.469396046112</v>
+        <v>335393.9776508267</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-7218.615977702817</v>
+        <v>303091.2830366261</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-7190.463648085147</v>
+        <v>-226879.7080608735</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-7154.557934401208</v>
+        <v>-708799.0335552499</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-7127.038709521805</v>
+        <v>117140.2853844859</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-7098.261467056442</v>
+        <v>346311.2411510285</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-7046.290547286891</v>
+        <v>-109644.0946976269</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-7021.969593445217</v>
+        <v>-41537.71882348154</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-7003.918273710457</v>
+        <v>48908.73685001845</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-6942.461548131815</v>
+        <v>187025.7592545259</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-6924.230559403423</v>
+        <v>117285.5033899051</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-6911.686472914888</v>
+        <v>-329022.9142926881</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-6846.74668956753</v>
+        <v>61498.48472428961</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-224410.2128818214</v>
+        <v>112768.5970478198</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-5838.785523698718</v>
+        <v>-559363.0100845356</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-5795.05240527872</v>
+        <v>463670.1794426862</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-5799.992666138514</v>
+        <v>-78788.45640915415</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-5740.929478580751</v>
+        <v>294348.3372802587</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-5728.322780816907</v>
+        <v>95278.38435272602</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-5718.169039977595</v>
+        <v>-647948.6966344451</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-5677.65697750444</v>
+        <v>108783.530084362</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5674.857497914611</v>
+        <v>-98372.86047954431</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5630.665899694312</v>
+        <v>15775.84756581151</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5619.286050598058</v>
+        <v>114405.229127757</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-5603.948458079039</v>
+        <v>-327766.9822421441</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-223349.8347309075</v>
+        <v>187784.5450846228</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4740.076731667487</v>
+        <v>340700.8862185065</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4686.868400847256</v>
+        <v>-254392.37628578</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-4625.399677757027</v>
+        <v>-472620.6173477172</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-4715.312629683619</v>
+        <v>142369.9131491241</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-4616.51159668159</v>
+        <v>543552.2483347143</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-4577.784817213481</v>
+        <v>219794.6342794911</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-4609.968942486036</v>
+        <v>168205.4759132406</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-4577.289136532658</v>
+        <v>-312889.0696984928</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-4564.549603900306</v>
+        <v>-949997.6848549069</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-4558.332189945582</v>
+        <v>666037.6817219502</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4468.552377255958</v>
+        <v>159823.2114281049</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4485.014373305935</v>
+        <v>-318190.4578006056</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4483.128699124405</v>
+        <v>-57437.47476672564</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4442.621214883547</v>
+        <v>197404.658200126</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4422.154020778657</v>
+        <v>380889.8265051046</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4444.537852409845</v>
+        <v>-526857.5558825018</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-4361.881874895726</v>
+        <v>-853353.0084345979</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-4404.856607662539</v>
+        <v>345724.1786111341</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-4312.895265804676</v>
+        <v>788771.4022960509</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-4404.412646509779</v>
+        <v>341749.3249959552</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-4391.044682684787</v>
+        <v>-463561.0260238043</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-4234.342619609717</v>
+        <v>-510461.0299742363</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-4320.675167389954</v>
+        <v>-449515.8191010049</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-781148.4349178093</v>
+        <v>153820.2892663355</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1912.032649069351</v>
+        <v>309754.0593474839</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1872.05010146453</v>
+        <v>-424959.4062204091</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1867.82417557806</v>
+        <v>286483.6904868659</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1880.716473813329</v>
+        <v>731613.3482321933</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1830.784867260733</v>
+        <v>-252269.1719766216</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1816.988224628488</v>
+        <v>-371507.8228738582</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1799.286243216415</v>
+        <v>-195304.2796490671</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1778.053481398876</v>
+        <v>314528.0836655751</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1723.55861557042</v>
+        <v>-64033.46508429869</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1742.206198275024</v>
+        <v>-398676.0392043573</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1763.229912387053</v>
+        <v>546612.2329205499</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1688.045871803162</v>
+        <v>430518.6061303429</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1655.674854980806</v>
+        <v>-425065.2919919259</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1667.148915059801</v>
+        <v>-6240.251027587311</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1671.100527971322</v>
+        <v>-247435.4337257016</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1606.360664241535</v>
+        <v>42078.77709494718</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-1616.874851158538</v>
+        <v>153805.9197667036</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-1551.220628098268</v>
+        <v>279737.4178199755</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-1598.067929065702</v>
+        <v>-466567.3486983348</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1636.260816116902</v>
+        <v>-522364.3064474727</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1500.361408497392</v>
+        <v>556157.1192507776</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1510.884054696887</v>
+        <v>-12093.36097511337</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1521.068365453403</v>
+        <v>23910.0996156745</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-235226.1630914967</v>
+        <v>73169.03677646219</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-928.2901559863319</v>
+        <v>-180434.3065636301</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-916.1139526378678</v>
+        <v>-36545.03002989897</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-886.1198187794911</v>
+        <v>-94579.50172202638</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-860.1141354360751</v>
+        <v>-144129.4033345473</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-862.7620707645073</v>
+        <v>95754.04597226686</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-824.0696030194836</v>
+        <v>-69480.55998880061</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-854.7009279414956</v>
+        <v>73921.55247476441</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-814.8611413879894</v>
+        <v>469075.5756903166</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-760.6699292261826</v>
+        <v>-455589.7485458328</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-793.4742509572268</v>
+        <v>-18241.78002623086</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-714.2608766047347</v>
+        <v>-29162.55853985969</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-144732.4342749405</v>
+        <v>-7788.583107404444</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-541.1205176627484</v>
+        <v>78383.95725593147</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-518.8998306660274</v>
+        <v>-142574.8695779124</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-507.7472772558583</v>
+        <v>649139.5021616736</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-486.0650085491476</v>
+        <v>-205640.7461551565</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-453.7777834403755</v>
+        <v>-334004.8897567698</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-438.097310776756</v>
+        <v>-237347.6535559399</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-460.38862895996</v>
+        <v>95013.32994560619</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-421.7820084593986</v>
+        <v>410408.3043647594</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-357.876823507869</v>
+        <v>-676863.4549802182</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-386.7456640336484</v>
+        <v>-114410.1424990093</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-325.7182575731566</v>
+        <v>449119.1706241657</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-309.5643551372884</v>
+        <v>344002.9968726381</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-273.2132875256008</v>
+        <v>8746.426761484599</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-251.4466387277915</v>
+        <v>-91837.73013464085</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-224.0810672465689</v>
+        <v>-227668.7916283504</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-186.3060520516293</v>
+        <v>28658.06455683825</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-148.8326831165467</v>
+        <v>241591.3027008031</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-111.3136866731759</v>
+        <v>174273.8409437428</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-75.53390113648707</v>
+        <v>-450402.3683358772</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-17.07511273263166</v>
+        <v>-14117.92245848203</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-29.36528224022605</v>
+        <v>-153822.2261477093</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>72.55451462205606</v>
+        <v>7594.156636816238</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>49.48193196166244</v>
+        <v>-256514.0239809672</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-67029.36546401915</v>
+        <v>382502.0912904764</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb value hedge.xlsx
+++ b/Data/zcb value hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>189972.6342060384</v>
+        <v>-27872.73217226321</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>482388.7191872528</v>
+        <v>-28505.19157816322</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-387898.3602988338</v>
+        <v>-28951.16391042173</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-521686.9224756696</v>
+        <v>-29322.46222077663</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-24114.58100197818</v>
+        <v>-29465.67670647293</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-108671.7521613445</v>
+        <v>-29270.15557835265</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>236129.9554903601</v>
+        <v>-29085.13773181424</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>84217.74204762869</v>
+        <v>-28919.83322262217</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-411730.673779253</v>
+        <v>-28608.05240017437</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-193965.2827945087</v>
+        <v>-28150.93408682003</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>335393.9776508267</v>
+        <v>-27664.48673328008</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>303091.2830366261</v>
+        <v>-27253.25510337381</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-226879.7080608735</v>
+        <v>-26723.8192678688</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-708799.0335552499</v>
+        <v>-26245.77455861241</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>117140.2853844859</v>
+        <v>-25256.98877275228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>346311.2411510285</v>
+        <v>-24305.70329757581</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-109644.0946976269</v>
+        <v>-23973.6899340907</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-41537.71882348154</v>
+        <v>-23287.3223833589</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>48908.73685001845</v>
+        <v>-22683.44833445781</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>187025.7592545259</v>
+        <v>-22051.95055150932</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>117285.5033899051</v>
+        <v>-21393.72180435376</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-329022.9142926881</v>
+        <v>-20714.1215496283</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>61498.48472428961</v>
+        <v>-20140.64076975684</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>112768.5970478198</v>
+        <v>-126522.0942230288</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-559363.0100845356</v>
+        <v>-15966.05072521717</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>463670.1794426862</v>
+        <v>-15773.91933315351</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-78788.45640915415</v>
+        <v>-15472.58800625017</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>294348.3372802587</v>
+        <v>-14941.39418334994</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>95278.38435272602</v>
+        <v>-14709.02088501978</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-647948.6966344451</v>
+        <v>-14253.40069303035</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>108783.530084362</v>
+        <v>-13963.84161733983</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-98372.86047954431</v>
+        <v>-13485.23445993945</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>15775.84756581151</v>
+        <v>-13194.01049688353</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>114405.229127757</v>
+        <v>-12842.43416880642</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-327766.9822421441</v>
+        <v>-12468.07131298199</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>187784.5450846228</v>
+        <v>-118230.1708920357</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>340700.8862185065</v>
+        <v>-10061.68160939902</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-254392.37628578</v>
+        <v>-9770.351655640088</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-472620.6173477172</v>
+        <v>-9576.845055425692</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>142369.9131491241</v>
+        <v>-9399.691138934173</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>543552.2483347143</v>
+        <v>-9482.200229550292</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>219794.6342794911</v>
+        <v>-9179.840758572129</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>168205.4759132406</v>
+        <v>-8818.489126861503</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-312889.0696984928</v>
+        <v>-8740.290892814754</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-949997.6848549069</v>
+        <v>-8532.524324760823</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>666037.6817219502</v>
+        <v>-8435.810227489135</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>159823.2114281049</v>
+        <v>-8287.447494908836</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-318190.4578006056</v>
+        <v>-8084.70816677213</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-57437.47476672564</v>
+        <v>-7858.009488631932</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>197404.658200126</v>
+        <v>-7698.608058461469</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>380889.8265051046</v>
+        <v>-7626.789900368242</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-526857.5558825018</v>
+        <v>-7421.600177721641</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-853353.0084345979</v>
+        <v>-7354.08262542528</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>345724.1786111341</v>
+        <v>-7208.394319977569</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>788771.4022960509</v>
+        <v>-7004.423362970527</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>341749.3249959552</v>
+        <v>-6796.853457025359</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-463561.0260238043</v>
+        <v>-6689.817791154689</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-510461.0299742363</v>
+        <v>-6576.90674109983</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-449515.8191010049</v>
+        <v>-6471.391111436718</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>153820.2892663355</v>
+        <v>-375344.5150015376</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>309754.0593474839</v>
+        <v>-2501.172781160858</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-424959.4062204091</v>
+        <v>-2472.357800316604</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>286483.6904868659</v>
+        <v>-2426.488532461176</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>731613.3482321933</v>
+        <v>-2385.089875361895</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-252269.1719766216</v>
+        <v>-2342.260552554153</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-371507.8228738582</v>
+        <v>-2273.622500472011</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-195304.2796490671</v>
+        <v>-2246.925960998009</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>314528.0836655751</v>
+        <v>-2180.457705455039</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-64033.46508429869</v>
+        <v>-2171.495254655041</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-398676.0392043573</v>
+        <v>-2121.71188378467</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>546612.2329205499</v>
+        <v>-2113.768735606039</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>430518.6061303429</v>
+        <v>-2082.956201836494</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-425065.2919919259</v>
+        <v>-2016.789928209417</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-6240.251027587311</v>
+        <v>-2016.834970768178</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-247435.4337257016</v>
+        <v>-1997.291766057096</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>42078.77709494718</v>
+        <v>-2020.020294147966</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>153805.9197667036</v>
+        <v>-1948.731695737526</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>279737.4178199755</v>
+        <v>-1952.037018573134</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-466567.3486983348</v>
+        <v>-1880.039870115615</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-522364.3064474727</v>
+        <v>-1875.081761426459</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>556157.1192507776</v>
+        <v>-1907.631957430888</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-12093.36097511337</v>
+        <v>-1853.281170119549</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>23910.0996156745</v>
+        <v>-1835.790387995673</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>73169.03677646219</v>
+        <v>-120536.6535508656</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-180434.3065636301</v>
+        <v>-1069.16908048592</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-36545.03002989897</v>
+        <v>-1037.378309504954</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-94579.50172202638</v>
+        <v>-1006.000617172101</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-144129.4033345473</v>
+        <v>-959.7256246177544</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>95754.04597226686</v>
+        <v>-961.165293637821</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-69480.55998880061</v>
+        <v>-927.8541838848761</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>73921.55247476441</v>
+        <v>-936.8959503854447</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>469075.5756903166</v>
+        <v>-895.9969601476033</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-455589.7485458328</v>
+        <v>-911.9707307866365</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-18241.78002623086</v>
+        <v>-924.4015243295261</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-29162.55853985969</v>
+        <v>-905.1183041758055</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-7788.583107404444</v>
+        <v>-97405.6188670859</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>78383.95725593147</v>
+        <v>-576.2131538399767</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-142574.8695779124</v>
+        <v>-587.9169370934774</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>649139.5021616736</v>
+        <v>-576.4997619579231</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-205640.7461551565</v>
+        <v>-580.4754121272406</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-334004.8897567698</v>
+        <v>-584.211346050738</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-237347.6535559399</v>
+        <v>-549.2474733542732</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>95013.32994560619</v>
+        <v>-549.8961023201276</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>410408.3043647594</v>
+        <v>-564.1062702315463</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-676863.4549802182</v>
+        <v>-552.3092859922812</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-114410.1424990093</v>
+        <v>-571.077061912014</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>449119.1706241657</v>
+        <v>-564.2036018871468</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>344002.9968726381</v>
+        <v>-577.220006708626</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>8746.426761484599</v>
+        <v>-570.724020188372</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-91837.73013464085</v>
+        <v>-553.3339442735194</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-227668.7916283504</v>
+        <v>-530.3967074245548</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>28658.06455683825</v>
+        <v>-537.0728868010428</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>241591.3027008031</v>
+        <v>-550.1331633514874</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>174273.8409437428</v>
+        <v>-545.2585385317417</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-450402.3683358772</v>
+        <v>-519.8537324430229</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-14117.92245848203</v>
+        <v>-528.5157178316325</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-153822.2261477093</v>
+        <v>-508.5178836755719</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>7594.156636816238</v>
+        <v>-498.959295779198</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-256514.0239809672</v>
+        <v>-498.1610634008524</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>382502.0912904764</v>
+        <v>-111069.0481202427</v>
       </c>
     </row>
   </sheetData>
